--- a/Industrials/Norfolk Southern.xlsx
+++ b/Industrials/Norfolk Southern.xlsx
@@ -8,13 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979CDA95-2835-4A4E-A253-4903E0FD8090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385B0003-6F0F-E14E-B72C-1F59F1841750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$106</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$19</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -962,18 +981,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,12 +1018,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1035,6 +1036,24 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,6 +1070,1371 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>NSC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46967928678336685"/>
+          <c:y val="3.1716989932785343E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3028099173553735E-2"/>
+          <c:y val="0.14954570358695912"/>
+          <c:w val="0.86143471074380173"/>
+          <c:h val="0.70194501415065691"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3825100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4076400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4112800000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4461600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4536000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4617000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4451300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4606600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4460100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4581300000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4668000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4770000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4223000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4221000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5195000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6159000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6170000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6270000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6468000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7312000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8527000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9407000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9432000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10661000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7969000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9516000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11172000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11040000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11245000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11624000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10511000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9888000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10551000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11458000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11296000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9789000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11142000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12745000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6F6-3B40-9825-12B7BAC0FEA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EBITDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1076300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1136900000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>581300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1312400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>585700000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>502400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-237700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>478700000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>716400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1452800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1528200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1626100000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1452000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1399000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>840000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>767000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1093000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1235000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1238000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1911000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2484000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2980000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3023000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4009000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2934000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3655000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4242000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4184000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4424000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4647000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4050000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4181000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4754000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5130000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5234000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4309000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5705000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6043000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6F6-3B40-9825-12B7BAC0FEA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free Cash Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>455600000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>325000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>431400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>578500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>516500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>275000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-66000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-379000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>611000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-92000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>114000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>334000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>620000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1080000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1028000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>992000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1157000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>561000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1244000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1067000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>824000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1107000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>734000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>492000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1147000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1530000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1775000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1873000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2143000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2785000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2274000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6F6-3B40-9825-12B7BAC0FEA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1334016767"/>
+        <c:axId val="1334022207"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1334016767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334022207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1334022207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334016767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34847306566018088"/>
+          <c:y val="0.91827140675896546"/>
+          <c:w val="0.30305376456042166"/>
+          <c:h val="5.0011603308249185E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07F9A70-C234-CD5D-E19D-FAC619B0B319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,11 +2559,11 @@
     <v>Powered by Refinitiv</v>
     <v>264.22000000000003</v>
     <v>196.33</v>
-    <v>1.2847</v>
-    <v>0.5</v>
-    <v>2.2959999999999999E-3</v>
-    <v>4.97</v>
-    <v>2.2772999999999998E-2</v>
+    <v>1.2854000000000001</v>
+    <v>-1.43</v>
+    <v>-6.5710000000000005E-3</v>
+    <v>-1.72</v>
+    <v>-7.9559999999999995E-3</v>
     <v>USD</v>
     <v>Norfolk Southern Corporation is a holding company, which is engaged principally in the rail transportation business. The Company is primarily engaged in the rail transportation of raw materials, intermediate products, and finished goods primarily in the Southeast, East, and Midwest and, via interchange with rail carriers, to and from the rest of the United States. It also transports overseas freight through several Atlantic and Gulf Coast ports. It offers an intermodal network in the eastern half of the United States. Its railroad operations system reaches various manufacturing plants, electric generating facilities, mines, distribution centers, transload facilities, and other businesses located in its service area. The Company is a transporter of industrial products, including agriculture, forest and consumer products, chemicals and metals, and construction materials. The Company is also a principal carrier of coal, automobiles, and automotive parts.</v>
     <v>19300</v>
@@ -1187,25 +2571,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>650 W Peachtree Street Nw, ATLANTA, GA, 30308 US</v>
-    <v>223.99</v>
+    <v>219.155</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>45068.958333367969</v>
+    <v>45086.958333367969</v>
     <v>0</v>
-    <v>217.19</v>
-    <v>49680066304</v>
+    <v>215.19</v>
+    <v>49211130000</v>
     <v>NORFOLK SOUTHERN CORPORATION</v>
     <v>NORFOLK SOUTHERN CORPORATION</v>
-    <v>223.94</v>
-    <v>16.7575</v>
-    <v>217.74</v>
-    <v>218.24</v>
-    <v>223.21</v>
+    <v>218.01</v>
+    <v>16.747499999999999</v>
+    <v>217.61</v>
+    <v>216.18</v>
+    <v>214.46</v>
     <v>227639600</v>
     <v>NSC</v>
     <v>NORFOLK SOUTHERN CORPORATION (XNYS:NSC)</v>
-    <v>1875386</v>
-    <v>1495735</v>
+    <v>975606</v>
+    <v>1392594</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -1793,10 +3177,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP92" sqref="AP92"/>
+      <selection pane="bottomRight" activeCell="AM19" sqref="AM19:AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4011,15 +5395,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>3.898004417732444</v>
+        <v>3.8612106708513143</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>15.192680826911316</v>
+        <v>15.049275229357798</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>21.846994856640283</v>
+        <v>21.640778364116095</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -12144,10 +13528,10 @@
       <c r="AM83" s="1">
         <v>-35000000</v>
       </c>
-      <c r="AT83" s="33" t="s">
+      <c r="AT83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="34"/>
+      <c r="AU83" s="61"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12267,10 +13651,10 @@
       <c r="AM84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT84" s="35" t="s">
+      <c r="AT84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="36"/>
+      <c r="AU84" s="63"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12768,10 +14152,10 @@
       <c r="AM88" s="1">
         <v>-1948000000</v>
       </c>
-      <c r="AT88" s="37" t="s">
+      <c r="AT88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AU88" s="38">
+      <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
         <v>4.4381734222678298E-2</v>
       </c>
@@ -13184,10 +14568,10 @@
       <c r="AM91" s="1">
         <v>-12000000</v>
       </c>
-      <c r="AT91" s="37" t="s">
+      <c r="AT91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AU91" s="38">
+      <c r="AU91" s="34">
         <f>AU89/AU90</f>
         <v>0.20823244552058112</v>
       </c>
@@ -13310,10 +14694,10 @@
       <c r="AM92" s="1">
         <v>94000000</v>
       </c>
-      <c r="AT92" s="39" t="s">
+      <c r="AT92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AU92" s="40">
+      <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
         <v>3.514001716904553E-2</v>
       </c>
@@ -13436,10 +14820,10 @@
       <c r="AM93" s="1">
         <v>263000000</v>
       </c>
-      <c r="AT93" s="35" t="s">
+      <c r="AT93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="36"/>
+      <c r="AU93" s="63"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13562,7 +14946,7 @@
       <c r="AT94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AU94" s="41">
+      <c r="AU94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13684,12 +15068,12 @@
       <c r="AM95" s="1">
         <v>-553000000</v>
       </c>
-      <c r="AT95" s="42" t="s">
+      <c r="AT95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="43" cm="1">
+      <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.2847</v>
+        <v>1.2854000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -13813,7 +15197,7 @@
       <c r="AT96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AU96" s="41">
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13935,12 +15319,12 @@
       <c r="AM97" s="1">
         <v>-3114000000</v>
       </c>
-      <c r="AT97" s="39" t="s">
+      <c r="AT97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AU97" s="40">
+      <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.6256334999999998E-2</v>
+        <v>9.6286470000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -14061,10 +15445,10 @@
       <c r="AM98" s="1">
         <v>-1167000000</v>
       </c>
-      <c r="AT98" s="35" t="s">
+      <c r="AT98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="36"/>
+      <c r="AU98" s="63"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14310,12 +15694,12 @@
       <c r="AM100" s="10">
         <v>-3002000000</v>
       </c>
-      <c r="AT100" s="37" t="s">
+      <c r="AT100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AU100" s="38">
+      <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.23887707074235048</v>
+        <v>0.24060566210304965</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14436,12 +15820,12 @@
       <c r="AM101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT101" s="42" t="s">
+      <c r="AT101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AU101" s="44" cm="1">
+      <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>49680066304</v>
+        <v>49211130000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14562,12 +15946,12 @@
       <c r="AM102" s="10">
         <v>-383000000</v>
       </c>
-      <c r="AT102" s="37" t="s">
+      <c r="AT102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AU102" s="38">
+      <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.76112292925764946</v>
+        <v>0.75939433789695032</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14688,12 +16072,12 @@
       <c r="AM103" s="1">
         <v>839000000</v>
       </c>
-      <c r="AT103" s="39" t="s">
+      <c r="AT103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AU103" s="45">
+      <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>65272066304</v>
+        <v>64803130000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14814,10 +16198,10 @@
       <c r="AM104" s="11">
         <v>456000000</v>
       </c>
-      <c r="AT104" s="35" t="s">
+      <c r="AT104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="36"/>
+      <c r="AU104" s="63"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -14983,7 +16367,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.1657048021983106E-2</v>
+        <v>8.1574287231355305E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15104,33 +16488,33 @@
       <c r="AM106" s="1">
         <v>2274000000</v>
       </c>
-      <c r="AN106" s="46">
+      <c r="AN106" s="42">
         <f>AM106*(1+$AU$106)</f>
         <v>2334668094.1723542</v>
       </c>
-      <c r="AO106" s="46">
+      <c r="AO106" s="42">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
         <v>2396954753.714324</v>
       </c>
-      <c r="AP106" s="46">
+      <c r="AP106" s="42">
         <f t="shared" si="9"/>
         <v>2460903160.3656931</v>
       </c>
-      <c r="AQ106" s="46">
+      <c r="AQ106" s="42">
         <f t="shared" si="9"/>
         <v>2526557647.9127955</v>
       </c>
-      <c r="AR106" s="46">
+      <c r="AR106" s="42">
         <f t="shared" si="9"/>
         <v>2593963732.9239898</v>
       </c>
-      <c r="AS106" s="47" t="s">
+      <c r="AS106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AT106" s="48" t="s">
+      <c r="AT106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AU106" s="49">
+      <c r="AU106" s="45">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>2.6679021183972872E-2</v>
       </c>
@@ -15175,151 +16559,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="47"/>
-      <c r="AO107" s="47"/>
-      <c r="AP107" s="47"/>
-      <c r="AQ107" s="47"/>
-      <c r="AR107" s="50">
+      <c r="AN107" s="43"/>
+      <c r="AO107" s="43"/>
+      <c r="AP107" s="43"/>
+      <c r="AQ107" s="43"/>
+      <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>42912255653.8731</v>
-      </c>
-      <c r="AS107" s="51" t="s">
+        <v>42969933174.234688</v>
+      </c>
+      <c r="AS107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AT107" s="52" t="s">
+      <c r="AT107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AU107" s="53">
+      <c r="AU107" s="49">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="50">
+      <c r="AN108" s="46">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
         <v>2334668094.1723542</v>
       </c>
-      <c r="AO108" s="50">
+      <c r="AO108" s="46">
         <f t="shared" si="10"/>
         <v>2396954753.714324</v>
       </c>
-      <c r="AP108" s="50">
+      <c r="AP108" s="46">
         <f t="shared" si="10"/>
         <v>2460903160.3656931</v>
       </c>
-      <c r="AQ108" s="50">
+      <c r="AQ108" s="46">
         <f>AQ107+AQ106</f>
         <v>2526557647.9127955</v>
       </c>
-      <c r="AR108" s="50">
+      <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>45506219386.797089</v>
-      </c>
-      <c r="AS108" s="51" t="s">
+        <v>45563896907.158676</v>
+      </c>
+      <c r="AS108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AT108" s="54" t="s">
+      <c r="AT108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AU108" s="55">
+      <c r="AU108" s="51">
         <f>AU105</f>
-        <v>8.1657048021983106E-2</v>
+        <v>8.1574287231355305E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="56" t="s">
+      <c r="AN109" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="57"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="58" t="s">
+      <c r="AN110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AO110" s="44">
+      <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>38731715351.203102</v>
+        <v>38783935524.925941</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="58" t="s">
+      <c r="AN111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AO111" s="44">
+      <c r="AO111" s="40">
         <f>AM40</f>
         <v>456000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="58" t="s">
+      <c r="AN112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AO112" s="44">
+      <c r="AO112" s="40">
         <f>AU99</f>
         <v>15592000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="58" t="s">
+      <c r="AN113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AO113" s="44">
+      <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>23595715351.203102</v>
+        <v>23647935524.925941</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="58" t="s">
+      <c r="AN114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AO114" s="59">
+      <c r="AO114" s="53">
         <f>AM34*(1+(5*AS16))</f>
         <v>209915359.93991873</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="60" t="s">
+      <c r="AN115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AO115" s="61">
+      <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>112.40585423551944</v>
+        <v>112.65462199476195</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="58" t="s">
+      <c r="AN116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="AO116" s="62" cm="1">
+      <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>218.24</v>
+        <v>216.18</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="63" t="s">
+      <c r="AN117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AO117" s="64">
+      <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.48494384972727533</v>
+        <v>-0.47888508652621908</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="63" t="s">
+      <c r="AN118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AO118" s="65" t="str">
+      <c r="AO118" s="59" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/NSC" display="ROIC.AI | NSC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -15402,5 +16786,6 @@
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:NSC/explorer/revenue_proj" xr:uid="{4AC0C613-DC7C-BC45-8A5B-9C0FE2D001F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId79"/>
 </worksheet>
 </file>